--- a/docs/ExampleMap-Template.xlsx
+++ b/docs/ExampleMap-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\master\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\training\DT_TestAutoAcademy\hallgatói\MF+ITTAA_23041\projectworks\testautomation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B4C054-C0E1-45C6-B900-0BA547389E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3829E4C-87B3-4E9B-876E-B87E7CE4BB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="2100" windowWidth="30030" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45972" yWindow="2592" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example Map" sheetId="1" r:id="rId1"/>
@@ -25,120 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>This is a rule</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="20"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This is an example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Context
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="20"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-=&gt; Outcome</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>This is a question</t>
   </si>
   <si>
-    <t>This is my user story or topic</t>
+    <t>Én, mint egy vásárló szeretnék termékeket keresni a Tesco online webáruházában.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="16"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This is another example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Context
-- Other context
-- And another
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="16"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-=&gt; Outcome</t>
-    </r>
+    <t>Létező termék keresése esetén feljön a találati lista</t>
+  </si>
+  <si>
+    <t>Nem létező termék esetén üres listát kapok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Nyitó oldalon vagyok
+- A keresőben megadok egy létező terméket
+=&gt; Megjelenik a találati lista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Nyitó oldalon vagyok
+- A keresőben megadok egy olyan kifejezést, amely két szóból áll
+=&gt; Megjelenik a találati lista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Nyitó oldalon vagyok
+- A keresőben megadok egy olyan kifejezést, amely ékezetek tartalmaz
+=&gt; Megjelenik a találati lista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Nyitó oldalon vagyok
+- A keresőben megadok egy nem létező terméket
+=&gt; Megjelenik egy értesítő üzenet, hogy nem található ilyen termék</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,13 +105,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -197,42 +119,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="20"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="20"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -349,15 +237,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -366,45 +245,36 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -725,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="26" x14ac:dyDescent="0.6"/>
@@ -750,14 +620,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11"/>
+      <c r="A1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
@@ -768,11 +638,13 @@
     </row>
     <row r="3" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
+      <c r="A4" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4"/>
+      <c r="C4" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
@@ -786,9 +658,11 @@
     <row r="5" spans="1:14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
@@ -807,24 +681,25 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A8" s="8" t="s">
-        <v>4</v>
+      <c r="A8" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A9" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:14" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="12" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.6"/>
     <row r="14" spans="1:14" ht="138" customHeight="1" x14ac:dyDescent="0.6"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:A10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
